--- a/sop.xlsx
+++ b/sop.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecop1234.sharepoint.com/sites/tiu/Shared Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{BFF7C4C3-449F-4655-8325-0039176AA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4285615-2718-4264-9398-DE6609AF2B8D}"/>
+  <xr:revisionPtr revIDLastSave="996" documentId="8_{BFF7C4C3-449F-4655-8325-0039176AA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D619EA-8EBF-403B-9BC5-D02EA711BAB8}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3F896B55-2733-498C-8654-7CB2CCC4CDB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="491">
   <si>
     <t>key</t>
   </si>
@@ -47,53 +48,1476 @@
     <t>query</t>
   </si>
   <si>
-    <t>[IEAT] CVE-2024-37085</t>
+    <t>IEAT-FW-003</t>
+  </si>
+  <si>
+    <t>FW-003 Inbound Suspicious Protocol Traffic - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: ("20" OR "21" OR "22" OR "23" OR "135" OR "138" OR "139" OR "161" OR "2048") AND action: ("accept" OR "close") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-001</t>
+  </si>
+  <si>
+    <t>AD-001 User Authentication Failure For Windows Host (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND NOT winlog.event_data.TargetUserName:*$ AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-002</t>
+  </si>
+  <si>
+    <t>AD-002 Password Spraying For Windows Host (Severity: Low)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event.code:4625 AND NOT winlog.event_data.TargetUserName.keyword:*$ AND source.ip: "'{data['source.ip']}'"
+</t>
+  </si>
+  <si>
+    <t>KP-AD-003</t>
+  </si>
+  <si>
+    <t>AD-003 Brute Force User Account Authentication For Windows Host (Severity: Medium</t>
+  </si>
+  <si>
+    <t>KP-AD-004</t>
+  </si>
+  <si>
+    <t>AD-004 Brute Force Authentication Multiple User Account&amp;Password For Windows Host (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND NOT winlog.event_data.TargetUserName.keyword:*$ AND source.ip: "'{data['source.ip']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-005</t>
+  </si>
+  <si>
+    <t>AD-005 Attempted Usage Windows Host By Disabled Account (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND winlog.event_data.SubStatus:"0xC0000072" AND NOT winlog.event_data.TargetUserName.keyword:*$ AND winlog.event_data.TargetUserName.keyword: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-006</t>
+  </si>
+  <si>
+    <t>AD-006 Attempted Usage Windows Host By Locked Account (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND winlog.event_data.SubStatus:"0xC0000193" AND NOT winlog.event_data.TargetUserName.keyword:*$ AND winlog.event_data.TargetUserName.keyword: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-008</t>
+  </si>
+  <si>
+    <t>AD-008 Activity User Account Added To Administrator Group Succeed (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.code:"4728" AND event.outcome:"success" AND user.target.group.name:"*Admin*" AND winlog.event_data.TargetUserName.keyword: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-009</t>
+  </si>
+  <si>
+    <t>AD-009 Activity User Account Remove From Group (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.code:4729 AND event.outcome:"success" AND winlog.event_data.TargetUserName.keyword: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-010</t>
+  </si>
+  <si>
+    <t>AD-010 Activity User Log Was Cleared (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.code:(1102 OR 104) AND event.outcome: "success" AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-011</t>
+  </si>
+  <si>
+    <t>AD-011 Account High Privilege (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code:(4624 OR 4672) AND winlog.event_data.TargetUserName:*admin* AND NOT winlog.event_data.TargetUserName:("cashadmin" OR "memberadmin" OR "dbdadmin" OR "svbsqladmin" OR "admin_icewarp" OR "Pu_Admins" OR "adminhrd" OR "HCMADMIN" OR "kpipksqladmin" OR "cmshopadmin" OR "admincrm" OR "kputpsqladmin" OR "calabrioadmin" OR "scd_admin" OR "hktsqladmin" OR "cmadmin") AND winlog.event_data.TargetUserName.keyword: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-012</t>
+  </si>
+  <si>
+    <t>AD-012 User Account Management (Create, Delete, Modify) (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT winlog.event_data.TargetUserName.keyword: (*$) AND event.code: (4720 OR 4726 OR 4724) AND event.outcome:success AND user.name: "'{data['user.name']}'"</t>
+  </si>
+  <si>
+    <t>KP-AD-017</t>
+  </si>
+  <si>
+    <t>AD-017 High Privilege User Login non Working Time - Successful (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.code: (4624 OR 4672 OR 4776) AND event.outcome.keyword: success AND winlog.event_data.TargetUserName.keyword: *admin* AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>KP-OS-027</t>
+  </si>
+  <si>
+    <t>OS-027 User Attempt to Change Account Password (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT winlog.event_data.TargetUserName.keyword: (*$) AND event.code: 4723 AND user.name: "'{data['user.name']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-001</t>
+  </si>
+  <si>
+    <t>EP-001 Machine Ransomware - Unclean (Severity: High)</t>
+  </si>
+  <si>
+    <t>cef_sig_name: *ransom* AND NOT deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted") AND destinationHostName: "'{data['destinationHostName']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-002</t>
+  </si>
+  <si>
+    <t>EP-002 Machine Ransomware - Clean (Severity: High)</t>
+  </si>
+  <si>
+    <t>cef_sig_name: *ransom* AND deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted") AND destinationHostName: "'{data['destinationHostName']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-003</t>
+  </si>
+  <si>
+    <t>EP-003 Many Machine Ransomware - Unclean (Severity: High)</t>
+  </si>
+  <si>
+    <t>cef_sig_name: *ransom* AND NOT deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted") AND cef_sig_name: "'{data['cef_sig_name']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-004</t>
+  </si>
+  <si>
+    <t>EP-004 Many Machine Ransomware - Clean (Severity: High)</t>
+  </si>
+  <si>
+    <t>cef_sig_name: *ransom* AND deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted") AND cef_sig_name:"'{data['cef_sig_name']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-005</t>
+  </si>
+  <si>
+    <t>EP-005 Machine Malware - Unclean (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>cef_device_product: "Apex Central" AND ((cef_sig_id: AV* AND NOT deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*")) OR (cef_sig_id: "Spyware Detected" AND NOT Actionresult: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*"))) AND NOT cef_sig_name: *ransom* AND destinationHostName: "'{data['destinationHostName']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-006</t>
+  </si>
+  <si>
+    <t>EP-006 Machine Malware - Clean (Severity: Low)</t>
+  </si>
+  <si>
+    <t>cef_device_product: "Apex Central" AND ((cef_sig_id: AV* AND deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*")) OR (cef_sig_id: "Spyware Detected" AND Actionresult: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*"))) AND NOT cef_sig_name: *ransom* AND destinationHostName: "'{data['destinationHostName']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-007</t>
+  </si>
+  <si>
+    <t>EP-007 Many Machine Malware - Unclean (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>cef_device_product: "Apex Central" AND ((cef_sig_id: AV* AND NOT deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*")) OR (cef_sig_id: "Spyware Detected" AND NOT Actionresult: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*"))) AND NOT cef_sig_name: *ransom* AND fileName: "'{data['fileName']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-008</t>
+  </si>
+  <si>
+    <t>EP-008 Many Machine Malware - Clean (Severity: Low)</t>
+  </si>
+  <si>
+    <t>cef_device_product: "Apex Central" AND ((cef_sig_id: AV* AND deviceAction: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*")) OR (cef_sig_id: "Spyware Detected" AND Actionresult: ("action required*" OR "*cleaned" OR "*quarantined" OR "*denied" OR "*deleted" OR "*success*"))) AND NOT cef_sig_name: *ransom* AND fileName: "'{data['fileName']}'"</t>
+  </si>
+  <si>
+    <t>KP-EP-009</t>
+  </si>
+  <si>
+    <t>EP-009 User Attempting To Use Peripheral Devices (Severity: High)</t>
+  </si>
+  <si>
+    <t>cef_device_product:"Apex Central" AND cef_sig_name:(Device Access Control) AND Permission:(0 OR 1) AND deviceHostName: "'{data['destinationHostName']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-003</t>
+  </si>
+  <si>
+    <t>FW-003 External Suspicious Protocol Traffic - Allowed (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_port: ("20" OR "21" OR "22" OR "23" OR "135" OR "138" OR "139" OR "161" OR "2048") AND action: (accept OR close) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-005</t>
+  </si>
+  <si>
+    <t>FW-005 External High Volume Traffic (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-006</t>
+  </si>
+  <si>
+    <t>FW-006 External DDoS Traffic (Severity: High) - FortiGate</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-008</t>
+  </si>
+  <si>
+    <t>FW-008 External Port Scanner Traffic (Severity: Low) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-017</t>
+  </si>
+  <si>
+    <t>FW-017 External Suspicious Connection SMB Traffic Behavior For Data - Allowed (Severity: High) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_port: 445 AND action: (accept OR close) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-021</t>
+  </si>
+  <si>
+    <t>FW-021 Internal High Volume Out-Site Traffic (Severity: Low) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND NOT dst_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-024</t>
+  </si>
+  <si>
+    <t>FW-024 Internal Network Scanner In-Site Traffic (Severity: Low) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-025</t>
+  </si>
+  <si>
+    <t>FW-025 Internal Port Scanner In-Site Traffic (Severity: Low) - FortiGate</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-026</t>
+  </si>
+  <si>
+    <t>FW-026 Internal High Volume In-Site Traffic (Severity: Low) - FortiGate</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-029</t>
+  </si>
+  <si>
+    <t>FW-029 Internal Data Transfer Out-Site - Allowed (Severity: High) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND NOT dst_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND action: (accept OR close) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-032</t>
+  </si>
+  <si>
+    <t>FW-032 Internal Suspicious Connection SMB Out-Site Traffic Behavior For Data - Blocked (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr:("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr:("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: 445 AND NOT action:(accept OR close) AND NOT src_ip_addr: "10.222.0.0/16" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-034</t>
+  </si>
+  <si>
+    <t>FW-034 External Malicious Activity Severity Risk - Allowed (Severity: High) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND crlevel: (High OR Critical) AND NOT action: dropped AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-036</t>
+  </si>
+  <si>
+    <t>FW-036 Multiple Internal RDP Detection (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffc AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_port: 3389 AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-037</t>
+  </si>
+  <si>
+    <t>FW-037 Multiple IPS Signature from Single Source (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-FORTIGATE-048</t>
+  </si>
+  <si>
+    <t>FW-048 Multiple IPS Signature from Single Internal Source (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-TI-FORTIGATE-001</t>
+  </si>
+  <si>
+    <t>TI-001 Incoming Traffic Allowed from Suspicious IP (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND action: (accept OR close) AND src_ioc: "'{data['src_ioc']}'"</t>
+  </si>
+  <si>
+    <t>KP-TI-FORTIGATE-002</t>
+  </si>
+  <si>
+    <t>TI-002 Outgoing Traffic Allowed to Suspicious IP (Severity: Medium) - FortiGate</t>
+  </si>
+  <si>
+    <t>type: traffic AND action: (accept OR close) AND dst_ioc: "'{data['dst_ioc']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-005</t>
+  </si>
+  <si>
+    <t>FW-005 External High Volume Traffic (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>Type: TRAFFIC AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-006</t>
+  </si>
+  <si>
+    <t>FW-006 External DDoS Traffic (Severity: High)</t>
+  </si>
+  <si>
+    <t>NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr:"0.0.0.0/0" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-008</t>
+  </si>
+  <si>
+    <t>FW-008 External Port Scanner Traffic (Severity: Low)</t>
+  </si>
+  <si>
+    <t>NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-021</t>
+  </si>
+  <si>
+    <t>FW-021 Internal High Volume Out-Site Traffic (Severity: Low)</t>
+  </si>
+  <si>
+    <t>src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr:"0.0.0.0/0" AND NOT dst_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-024</t>
+  </si>
+  <si>
+    <t>FW-024 Internal Network Scanner In-Site Traffic (Severity: Low)</t>
+  </si>
+  <si>
+    <t>src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr:"0.0.0.0/0" AND dst_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-025</t>
+  </si>
+  <si>
+    <t>FW-025 Internal Port Scanner In-Site Traffic (Severity: Low)</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-026</t>
+  </si>
+  <si>
+    <t>FW-026 Internal High Volume In-Site Traffic (Severity: Low)</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-029</t>
+  </si>
+  <si>
+    <t>FW-029 Internal Data Transfer Out-Site - Allowed (Severity: High)</t>
+  </si>
+  <si>
+    <t>src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND NOT dst_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND src_ip_addr:"0.0.0.0/0" AND panw.panos.action:"allow" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-032</t>
+  </si>
+  <si>
+    <t>FW-032 Internal Suspicious Connection SMB Out-Site Traffic Behavior For Data - Blocked (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>src_ip_addr:("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr:("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: 445 AND NOT action:(*allow* OR *Alert*) AND NOT src_ip_addr: "10.222.0.0/16" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-034</t>
+  </si>
+  <si>
+    <t>FW-034 External Malicious Activity Severity Risk - Allowed (Severity: High)</t>
+  </si>
+  <si>
+    <t>Type: Threat AND Severity: (High OR Critical) AND action: alert AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-036</t>
+  </si>
+  <si>
+    <t>FW-036 Multiple Internal RDP Detection (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>Type: Traffic AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND dst_port: 3389 AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-037</t>
+  </si>
+  <si>
+    <t>FW-037 Multiple IPS Signature from Single Source (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>Type: THREAT AND NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND NOT Severity: ("informational" OR "low") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-FW-PALOALTO-048</t>
+  </si>
+  <si>
+    <t>FW-048 Multiple IPS Signature from Single Internal Source (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>Type: THREAT AND src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND NOT Severity: ("informational" OR "low") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-TI-PALOALTO-001</t>
+  </si>
+  <si>
+    <t>TI-001 Incoming Traffic Allowed from Suspicious IP (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>Type: "TRAFFIC" AND action:(*allow* OR *Alert*) AND src_ioc: "'{data['src_ioc']}'"</t>
+  </si>
+  <si>
+    <t>KP-TI-PALOALTO-002</t>
+  </si>
+  <si>
+    <t>TI-002 Outgoing Traffic Allowed to Suspicious IP (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>Type: "TRAFFIC" AND action:(*allow* OR *Alert*) AND dst_ioc: "'{data['dst_ioc']}'"</t>
+  </si>
+  <si>
+    <t>KP-AUTH-003</t>
+  </si>
+  <si>
+    <t>AUTH-003 Brute Force Password Guessing (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.provider.keyword:"MSSQLSERVER" AND event.action.keyword:"Logon" AND succeeded:"false" AND server_principal_name: "'{data['server_principal_name']}'"</t>
+  </si>
+  <si>
+    <t>KP-AUTH-004</t>
+  </si>
+  <si>
+    <t>AUTH-004 Brute Force Account Guessing (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.provider.keyword:"MSSQLSERVER" AND event.action.keyword:"Logon" AND succeeded:"false" AND client_ip: "'{data['client_ip']}'"</t>
+  </si>
+  <si>
+    <t>KP-AUTH-011</t>
+  </si>
+  <si>
+    <t>AUTH-011 Login Success with Same Account from Multiple Source (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.provider.keyword:"MSSQLSERVER" AND event.action.keyword:"Logon" AND succeeded:"true" AND server_principal_name: "'{data['server_principal_name']}'"</t>
+  </si>
+  <si>
+    <t>KP-WEB-002</t>
+  </si>
+  <si>
+    <t>WEB-002 Excessive Suspicious Input Parameter (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND querystring.keyword: (*..* OR *..%2f* OR *..%252f* OR *..%25252f* OR *..%5C* OR *..%255C* OR *;* OR *\'* OR *\"* OR *\'--* OR *\"--* OR *\"* OR *\&lt;*\&gt;* OR *select*from* OR *jnd*ldap* OR *jnd*dns* OR *log4j*) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-WEB-003</t>
+  </si>
+  <si>
+    <t>WEB-003 Excessive Response Error 4xx (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND response: 4* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-WEB-004</t>
+  </si>
+  <si>
+    <t>WEB-004 Excessive Response Error 5xx (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND response: 5* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>KP-WEB-005</t>
+  </si>
+  <si>
+    <t>WEB-005 External Directory Traversal Attack (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT src_ip_addr: ([10.0.0.0 TO 10.255.255.255] OR [172.16.0.0 TO 172.31.255.255] OR [192.168.0.0 TO 192.168.255.255]) AND querystring.keyword: (*..* OR *..%2f* OR *..%252f* OR *..%25252f* OR *..%5C* OR *..%255C*) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Activity Modify User Account Succeed</t>
+  </si>
+  <si>
+    <t>winlog.event_data.TargetUserName.keyword: (*$) AND NOT winlog.event_data.SubjectUserName.keyword:(*$ OR aniwat.pan OR Aniwat.Pan OR Boonchai.pam OR boonchai.pam OR nitiwat OR Saran.pra OR saran.pra OR pakhin.noi OR kittisak.pa) AND event.code: ("4720" OR "4722" OR "4725" OR "4726" OR "4724") AND event.outcome: success AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-002</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Activity Modify User Account Set - Password Never Expires</t>
+  </si>
+  <si>
+    <t>NOT winlog.event_data.TargetUserName.keyword: (*$) AND event.code: "4738" AND NOT winlog.event_data.SubjectUserName:(Saran.pra OR saran.pra) AND winlog.event_data.PasswordLastSet: "%%1794" AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-003</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Activity User Account Added To Administrator Group Succeed</t>
+  </si>
+  <si>
+    <t>event.code:"4728" AND event.outcome:"success" AND user.target.group.name:*Admin* AND NOT winlog.event_data.SubjectUserName.keyword:(boonchai.pam OR saran.pra) AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-004</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Activity User Account Remove From Group</t>
+  </si>
+  <si>
+    <t>event.code:4729 AND event.outcome:"success" NOT winlog.event_data.SubjectUserName.keyword:(*$ OR aniwat.pan OR Aniwat.Pan OR Boonchai.pam OR boonchai.pam OR nitiwat OR Saran.pra OR saran.pra OR pakin.noi OR pakhin.noi) AND user.target.name: "'{data['user.target.name']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-005</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Activity User Log Was Cleared</t>
+  </si>
+  <si>
+    <t>event.code:"1102" AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-006</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Attempted Usage Windows Host by Disabled Account</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND NOT winlog.event_data.TargetUserName.keyword:(*$ OR Administrator) AND winlog.event_data.SubStatus:"0xC0000072" AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-007</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Attempted Usage Windows Host by Expired Account</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND NOT winlog.event_data.TargetUserName.keyword:(*$ OR Administrator) AND winlog.event_data.SubStatus:"0xC0000193" AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-008</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Attempted Usage Windows Host by Locked Account</t>
+  </si>
+  <si>
+    <t>event.code:4740 AND NOT winlog.event_data.TargetUserName.keyword:(*$ OR Administrator) AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-009</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Modified Trusted Domain for Windows Host</t>
+  </si>
+  <si>
+    <t>event.code: ("4706" OR "4707") OR (event.code: "4716" AND NOT winlog.event_data.SubjectUserName:"ANONYMOUS LOGON") AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-010</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-Password Spraying for Windows Host</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND NOT winlog.event_data.TargetUserName.keyword:(*$ OR Administrator) AND source.ip: "'{data['source.ip']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AD-011</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AD-User Authentication Failure for Windows Host</t>
+  </si>
+  <si>
+    <t>(event.code: 4625 OR (event.code: 4771 AND NOT source.ip: (10.160.15.6 OR 10.160.15.5 OR 10.17.50.5 OR 10.24.10.5 OR 10.24.10.6 OR 10.17.50.6))) AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AV-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AV-Defense is disabled on AV</t>
+  </si>
+  <si>
+    <t>p5:(*disabled* OR *Disabled*) AND domain: "'{data['domain']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AV-002</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AV-Malware Hit unclean</t>
+  </si>
+  <si>
+    <t>domain: "'{data['domain']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-EDR-015</t>
+  </si>
+  <si>
+    <t>[Alert-Major] EDR-015 Detected Malware Activity</t>
+  </si>
+  <si>
+    <t>event.dataset: "sentinel_one.threat" AND event.kind: "alert" AND sentinel_one.threat.confidence_level: ("suspicious" OR "malicious" OR "high confidence")</t>
+  </si>
+  <si>
+    <t>MAJOR-EM-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM-001 External Malicious Email Activity </t>
+  </si>
+  <si>
+    <t>deviceDirection:0 AND deviceAction: DELIVERED AND _exists_: sourceUserName AND _exists_: destinationUserName AND Sdrthreatcategory: (Malware Site OR Spam OR Phishing) AND NOT (ESAASVerdict:MARKETING_MAIL) AND sourceUserName: "'{data['sourceUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-EM-002</t>
+  </si>
+  <si>
+    <t>EM-002 External Malicious Email Activity Multiple Recipient</t>
+  </si>
+  <si>
+    <t>deviceDirection:0 AND deviceAction: DELIVERED AND _exists_: sourceUserName AND _exists_: destinationUserName AND sourceUserName: "'{data['sourceUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-EM-003</t>
+  </si>
+  <si>
+    <t>EM-003 External Malicious Email Activity Multiple Sender</t>
+  </si>
+  <si>
+    <t>deviceDirection:0 AND deviceAction: DELIVERED AND _exists_: sourceUserName AND _exists_: destinationUserName AND destinationUserName: "'{data['destinationUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-EM-004</t>
+  </si>
+  <si>
+    <t>[Alert-Major] Mail-High Volume Outgoing Email</t>
+  </si>
+  <si>
+    <t>sourceUserName: "'{data['sourceUserName']}'"  ----------------------- deviceDirection:1 AND deviceAction: DELIVERED AND _exists_: sourceUserName AND NOT destinationUserName: *@majorcineplex.com</t>
+  </si>
+  <si>
+    <t>MAJOR-EM-005</t>
+  </si>
+  <si>
+    <t>[Alert-Major] Mail-Suspicious Outgoing Email</t>
+  </si>
+  <si>
+    <t>NOT sourceUserName.keyword:(@majorcineplex.com OR *@majorcineplex.com.kh OR *@mpictures.co.th OR *@majorplatinumcineplex.la) AND deviceDirection:1 AND deviceAction: DELIVERED AND exists: sourceUserName AND Sdrthreatcategory: (Malware Site OR Spam OR Phishing) AND sourceUserName: "'{data['sourceUserName']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Botnet Connection Outbound</t>
+  </si>
+  <si>
+    <t>subtype: "ips" AND attack: *bot* AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16" OR "203.107.164.13" OR "203.107.164.14" OR "203.107.164.16" OR "203.107.164.17" OR "203.107.164.18" OR "203.107.164.23" OR "203.107.164.200" OR "203.107.164.222" OR "184.82.133.46" OR "184.82.133.41" OR "184.82.133.45" OR "184.82.133.48" OR "184.82.133.50" OR "184.82.133.44" OR "184.82.133.56" OR "184.82.133.47" OR "184.82.133.40" OR "182.82.133.31" OR "184.82.133.8" OR "184.82.133.9" OR "184.82.133.20" OR "184.82.133.11" OR "184.82.133.13" OR "184.82.133.12" OR "184.82.133.14" OR "184.82.133.15" OR "184.82.133.10" OR "182.82.133.31" OR "184.82.133.19") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-002</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-DDoS Incoming Traffic</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-003</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Deny Of Service From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-004</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Detected suspicious (IOCs MERCURY and DEV-1084 Destructive attack on hybrid environment) source ip from incoming traffic</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND action: (allow OR accept OR close) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-005</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-High Volume Incoming Traffic</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND NOT rule_name.keyword: "Deny-IP Blacklist" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-006</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Outbound Connection DNS Unauthorized</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16" OR "203.107.164.13" OR "203.107.164.14" OR "203.107.164.16" OR "203.107.164.17" OR "203.107.164.18" OR "203.107.164.23" OR "203.107.164.200" OR "203.107.164.222" OR "184.82.133.46" OR "184.82.133.41" OR "184.82.133.45" OR "184.82.133.48" OR "184.82.133.50" OR "184.82.133.44" OR "184.82.133.56" OR "184.82.133.47" OR "184.82.133.40" OR "182.82.133.31" OR "184.82.133.8" OR "184.82.133.9" OR "184.82.133.20" OR "184.82.133.11" OR "184.82.133.13" OR "184.82.133.12" OR "184.82.133.14" OR "184.82.133.15" OR "184.82.133.10" OR "182.82.133.31" OR "184.82.133.19") AND dst_port: "53" AND action: (allow OR accept OR close) AND NOT policyname: ("Colo_Outside Google Service" OR "Internal_Outside DNS Service" OR "Internal_Outside Meraki" OR "Customer_Outside Allow All" OR "Internal_Outside Google Service" OR "Internal_Outside Infra Support") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-007</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Outbound SMB Traffic</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16" OR "203.107.164.13" OR "203.107.164.14" OR "203.107.164.16" OR "203.107.164.17" OR "203.107.164.18" OR "203.107.164.23" OR "203.107.164.200" OR "203.107.164.222" OR "184.82.133.46" OR "184.82.133.41" OR "184.82.133.45" OR "184.82.133.48" OR "184.82.133.50" OR "184.82.133.44" OR "184.82.133.56" OR "184.82.133.47" OR "184.82.133.40" OR "182.82.133.31" OR "184.82.133.8" OR "184.82.133.9" OR "184.82.133.20" OR "184.82.133.11" OR "184.82.133.13" OR "184.82.133.12" OR "184.82.133.14" OR "184.82.133.15" OR "184.82.133.10" OR "182.82.133.31" OR "184.82.133.19") AND dst_port: "445" AND action: (allow OR accept OR close) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-008</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Port Scan Behavior From Incoming Traffic (FortiGate)</t>
+  </si>
+  <si>
+    <t>traffic AND subtype: forward AND NOT dst_port: (80 OR 443) AND NOT rule_name: "Deny-IP Blacklist" AND NOT action.keyword: deny AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-009</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Port Scan Behavior From Incoming Traffic (Palo Alto)</t>
+  </si>
+  <si>
+    <t>Type: TRAFFIC AND NOT dst_port: (80 OR 443) AND NOT rule_name.keyword: "Deny-IP Blacklist" AND NOT action.keyword: (deny OR drop) AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-010</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Port Scan Behavior From Internal Traffic (fortigate)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND NOT dst_port: (80 OR 443) AND NOT action.keyword: deny AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-011</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Port Scan Behavior From Internal Traffic (palo)</t>
+  </si>
+  <si>
+    <t>Type: TRAFFIC AND NOT dst_port: (80 OR 443) AND NOT action.keyword: (drop OR deny) AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-012</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Request Of High Network Bandwidth From External Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Type: "TRAFFIC" OR subtype: "forward") AND NOT (dst_ip_addr: 61.19.208.61 AND dst_port: 1194) AND src_ip_addr: "'{data['src_ip_addr']}'" </t>
+  </si>
+  <si>
+    <t>MAJOR-FW-013</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Request Of High Network Bandwidth From Incoming Connection</t>
+  </si>
+  <si>
+    <t>MAJOR-FW-014</t>
+  </si>
+  <si>
+    <t>[Alert-Major] FW-Suspicious Protocol From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype:"forward") AND dst_port: (20 OR 21 OR 22 OR 23 OR 445 OR 3389) AND action: (allow OR accept OR close) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-TI-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] TI-001 Incoming Traffic Allowed from Suspicious IP</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND action: (allow OR accept OR close) AND src_ioc: "'{data['src_ioc']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-TI-002</t>
+  </si>
+  <si>
+    <t>[Alert-Major] TI-002 Outgoing Traffic Allowed to Suspicious IP</t>
+  </si>
+  <si>
+    <t>(Type: "TRAFFIC" OR subtype: "forward") AND action: (allow OR accept OR close) AND dst_ioc: "'{data['dst_ioc']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AZUREAD-003</t>
+  </si>
+  <si>
+    <t>Alert-Major] AZURE-AD-003 Brute Force Account Guessing (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.provider: AzureActiveDirectory AND event.category: authentication AND event.action: "UserLoginFailed" AND NOT o365.audit.UserType: 4 AND client.ip: "'{data['client.ip']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AZUREAD-007</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AZURE-AD-007 User Account Created (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>o365.audit.Operation.keyword: "Add user." AND o365.audit.UserId: "'{data['o365.audit.UserId']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AZUREAD-008</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AZURE-AD-008 User Account Deleted (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>o365.audit.Operation.keyword: "Delete user." AND o365.audit.UserId: "'{data['o365.audit.UserId']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AZUREAD-009</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AZURE-AD-009 User Account Add to Privileged Role (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.provider: "AzureActiveDirectory" AND event.action: "Add member to role." AND o365.audit.ModifiedProperties.Role_DisplayName.NewValue: *Administrator* AND o365.audit.UserId: "'{data['o365.audit.UserId']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-AZUREAD-010</t>
+  </si>
+  <si>
+    <t>[Alert-Major] AZURE-AD-010 User Account Remove from Privileged Role (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.provider: "AzureActiveDirectory" AND event.action: "Remove member from role." AND o365.audit.ModifiedProperties.Role_DisplayName.OldValue: *Administrator* AND o365.audit.UserId: "'{data['o365.audit.UserId']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-O365-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] O365-001 Detected Activity about Suspicious File (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.provider: OneDrive AND event.action: (FileSyncUploadedFull OR FileSyncDownloadedFull) AND o365.audit.UserId: "'{data['o365.audit.UserId']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-VPN-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] VPN-Detected Inbound connection VPN succeed not country whitelist</t>
+  </si>
+  <si>
+    <t>subtype: vpn AND subtype: vpn AND NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND NOT src_geo.country_name: (Thailand OR Cambodia OR Laos OR "New Zealand") AND logdesc: "SSL VPN tunnel up" AND NOT msg: ("SSL alerts" OR "SSL new connection" OR "SSL VPN exit error") AND NOT src_geo.country_name: (Thailand OR Cambodia OR Laos OR Switzerland) AND logdesc: "SSL VPN tunnel up" AND NOT group: "LDAP_IT-Infra" AND NOT msg: ("SSL alerts" OR "SSL new connection" OR "SSL VPN exit error")  AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-VPN-002</t>
+  </si>
+  <si>
+    <t>[Alert-Major] VPN-Detected Inbound connetion VPN Unsuccess multiple unique user</t>
+  </si>
+  <si>
+    <t>subtype: vpn AND msg: "SSL user failed to logged in" AND NOT group: "LDAP_IT-Infra" AND NOT msg: ("SSL alerts" OR "SSL new connection" OR "SSL VPN exit error") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-VPN-003</t>
+  </si>
+  <si>
+    <t>[Alert-Major] VPN-Detected Inbound connetion VPN Unsuccessful</t>
+  </si>
+  <si>
+    <t>subtype: vpn AND msg: "SSL user failed to logged in" AND NOT msg: ("SSL alerts" OR "SSL new connection" OR "SSL VPN exit error") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-VPN-008</t>
+  </si>
+  <si>
+    <t>[Alert-Major] VPN-008 Login Success non Working Time (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: "event" AND subtype: "vpn" AND tunneltype.keyword: "ssl-tunnel" AND logdesc.keyword: "SSL VPN tunnel up" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-WEB-001</t>
+  </si>
+  <si>
+    <t>[Alert-Major] WEB-Cross-Site Scripting From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>subtype:"ips" NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND msg:*cross* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-WEB-002</t>
+  </si>
+  <si>
+    <t>[Alert-Major] WEB-Directory Traversal From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>subtype:"ips" NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND msg:(*Traversal* OR *traversal*) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-WEB-003</t>
+  </si>
+  <si>
+    <t>[Alert-Major] WEB-Log4J From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>subtype:"ips" NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND msg:*log4* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-WEB-004</t>
+  </si>
+  <si>
+    <t>[Alert-Major] WEB-Malicious Websites by web-proxy</t>
+  </si>
+  <si>
+    <t>catdesc: ("Games" OR "Proxy Avoidance " OR "Illegal or Unethical" OR "Malicious Websites" OR "Phishing" OR "Spam URLs" OR "Gambling" OR "Pornography" OR "Weapons") AND action: passthrough AND url.keyword: ("https://clientsdk.luminatinet.com", "https://clientsdk.lum-sdk.io", "https://clientsdk.luminati-china.io/") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-WEB-005</t>
+  </si>
+  <si>
+    <t>[Alert-Major] WEB-Remote Code Execution From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>subtype:"ips" NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND msg:*Remote.Code* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>MAJOR-WEB-006</t>
+  </si>
+  <si>
+    <t>[Alert-Major] WEB-SQL Injection From Incoming Traffic</t>
+  </si>
+  <si>
+    <t>subtype:"ips" NOT src_ip_addr:([10.0.0.0 TO 10.255.255.255] OR [192.168.0.0 TO 192.168.255.255] OR [172.16.0.0 TO 172.31.255.255]) AND msg:*Injection* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-001</t>
+  </si>
+  <si>
+    <t>OS-001 User Account Guessing (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code:(4625 OR 4776) AND event.outcome:failure AND NOT winlog.event_data.TargetUserName.keyword:*$ AND source.ip: "'{data['source.ip']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-002</t>
+  </si>
+  <si>
+    <t>OS-002 User Password Guessing (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code:(4625 OR 4776) AND event.outcome:failure AND NOT winlog.event_data.TargetUserName.keyword:*$ AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-007</t>
+  </si>
+  <si>
+    <t>OS-007 User Account Create Delete Modify - Successful (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code: (4720 OR 4722 OR 4724 OR 4725 OR 4726) AND event.outcome:success AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-011</t>
+  </si>
+  <si>
+    <t>OS-011 Attempted Login by Locked Account (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.code:4625 AND winlog.event_data.Status:"0xC0000234" AND NOT winlog.event_data.TargetUserName.keyword:*$ AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-012</t>
+  </si>
+  <si>
+    <t>OS-012 Attempted Login by Disabled Account (Severity: Low)</t>
+  </si>
+  <si>
+    <t>DPU-OS-013</t>
+  </si>
+  <si>
+    <t>OS-013 Add User Account to Administrator Group (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code: 4728 AND event.outcome:success AND user.target.group.name:*Admin* AND user.name: "'{data['user.name']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-014</t>
+  </si>
+  <si>
+    <t>OS-014 Remove User Account from Group (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code: 4729 AND event.outcome:success AND user.name: "'{data['user.name']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-015</t>
+  </si>
+  <si>
+    <t>OS-015 Audit Log was Cleared (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code:(1102 OR 104) AND event.outcome: success AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-016</t>
+  </si>
+  <si>
+    <t>OS-016 High Privilege User Login - Successful (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>event.code:(4624 OR 4672) AND event.outcome.keyword:success AND winlog.event_data.LogonType: (2 OR 10) AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'" AND  source.ip: "'{data['source.ip']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-017</t>
+  </si>
+  <si>
+    <t>OS-017 High Privilege User Login non Working Time - Successful (Severity: High)</t>
+  </si>
+  <si>
+    <t>event.code: (4624 OR 4672) AND event.outcome.keyword: success AND winlog.event_data.LogonType: (2 OR 10) AND ((host.ip: (192.168.83.23 OR 192.168.251.40) AND winlog.event_data.TargetUserName: ("uten.soy" OR "somnuk.sgn")) OR (host.ip: 192.168.251.162 AND winlog.event_data.TargetUserName: coachsvc)) AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'" AND source.ip: "'{data['source.ip']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-018</t>
+  </si>
+  <si>
+    <t>OS-018 Modified Trusted Domain (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>DPU-OS-019</t>
+  </si>
+  <si>
+    <t>OS-019 Modify User Account - Password Never Expires (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT winlog.event_data.TargetUserName.keyword: (*$) AND event.code: 4738 AND winlog.event_data.UserAccountControl: 2089 AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-021</t>
+  </si>
+  <si>
+    <t>OS-021 Multiple Login Failure by High Privilege User (Severity: Low)</t>
+  </si>
+  <si>
+    <t>event.code:(4625 OR 4776) AND event.outcome.keyword:failure AND winlog.event_data.TargetUserName.keyword:*admin* AND winlog.event_data.TargetUserName: "'{data['winlog.event_data.TargetUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-OS-022</t>
+  </si>
+  <si>
+    <t>OS-022 Attempted Login by Expired Account (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>DPU-OS-024</t>
+  </si>
+  <si>
+    <t>OS-024 Remove User Account from Administrator Group (Severity: High)</t>
+  </si>
+  <si>
+    <t>DPU-OS-027</t>
+  </si>
+  <si>
+    <t>event.code: 4723 AND event.outcome:success AND winlog.event_data.SubjectUserName: "'{data['winlog.event_data.SubjectUserName']}'"</t>
+  </si>
+  <si>
+    <t>DPU-AUTH-001</t>
+  </si>
+  <si>
+    <t>AUTH-001 High Privilege User Login - Successful (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: "event" AND subtype: "system" AND action: "login" AND user: *admin* AND status: "success" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-AUTH-002</t>
+  </si>
+  <si>
+    <t>AUTH-002 High Privilege User Login - Unsuccessful (Severity: Low)</t>
+  </si>
+  <si>
+    <t>type: "event" AND subtype: "system" AND action: "login" AND user: *admin* AND status: "failed" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-AUTH-003</t>
+  </si>
+  <si>
+    <t>type: "event" AND subtype: "system" AND action: "login" AND status: "failed" AND reason: "passwd_invalid" AND src_ip_addr: "'{data['src_ip_addr']}'" AND user: "'{data['user']}'"</t>
+  </si>
+  <si>
+    <t>DPU-AUTH-004</t>
+  </si>
+  <si>
+    <t>type: "event" AND subtype: "system" AND action: "login" AND status: "failed" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-AUTH-011</t>
+  </si>
+  <si>
+    <t>type: "event" AND subtype: "system" AND action: "login" AND status: "success" AND user: "'{data['user']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-001</t>
+  </si>
+  <si>
+    <t>FW-001 Inbound Remote Traffic - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND (dst_port: "3389" OR app: (*logmein* OR *anydesk* OR *rpc* OR *remote* OR *teamviewer*)) AND action: ("accept" OR "close") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-003</t>
+  </si>
+  <si>
+    <t>DPU-FW-005</t>
+  </si>
+  <si>
+    <t>FW-005 High Volume Traffic from External to Internal (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-006</t>
+  </si>
+  <si>
+    <t>FW-006 High Volume Traffic from Internal to External (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND action: accept AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-007</t>
+  </si>
+  <si>
+    <t>FW-007 External DoS Traffic (Severity: High)</t>
+  </si>
+  <si>
+    <t>DPU-FW-009</t>
+  </si>
+  <si>
+    <t>FW-009 Internal Network Scanner Traffic (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-011</t>
+  </si>
+  <si>
+    <t>FW-011 Internal Port Scanner Traffic (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND src_ip_addr: "'{data['src_ip_addr']}'" AND dst_ip_addr: "'{data['dst_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-012</t>
+  </si>
+  <si>
+    <t>FW-012 External Suspicious Connection SMB Traffic - Allowed (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: 445 AND action: ("accept" OR "close") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-014</t>
+  </si>
+  <si>
+    <t>FW-014 Internal Excessive SMB Connection to Multiple Destination (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: 445 AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-015</t>
+  </si>
+  <si>
+    <t>FW-015 Outbound Remote Traffic - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND (dst_port: "3389" OR app: (*logmein* OR *anydesk* OR *rpc* OR *remote* OR *teamviewer*)) AND action: ("accept" OR "close") AND NOT (utmaction: "block" OR appact: "drop-session") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-018</t>
+  </si>
+  <si>
+    <t>FW-018 Outbound Suspicious DNS Traffic - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: "53" AND action: ("accept" OR "close") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-020</t>
+  </si>
+  <si>
+    <t>FW-020 Internal High Volume Traffic (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>DPU-FW-021</t>
+  </si>
+  <si>
+    <t>FW-021 Large Outbound Data Transfer - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND action: ("accept") AND NOT appact: drop-session AND NOT app: ("Google.Drive" OR "Google.Services" OR "Google.Meet" OR "Zoom" OR "Zoom_Meeting" OR "RTMP" OR "OneDrive" OR "Tencent.Meeting" OR "GoToMeeting" OR "Google.Chat_Video.Call" OR "YouTube" OR "Microsoft.SharePoint" OR "QUIC" OR "Facebook" OR "Google.Chat" OR "Google.Docs" OR "QQ") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-022</t>
+  </si>
+  <si>
+    <t>FW-022 Outbound Suspicious SMB Traffic - Allowed (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND (dst_port: "445" AND action: ("accept" OR "close")) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-029</t>
+  </si>
+  <si>
+    <t>FW-029 Outbound Suspicious Protocol Traffic - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND (dst_port: ("20" OR "21" OR "22" OR "23" OR "135" OR "138" OR "139" OR "161" OR "2048") AND action: ("accept" OR "close")) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-031</t>
+  </si>
+  <si>
+    <t>FW-031 Internal Connection by Suspicious Protocol - Allowed (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND (dst_port: ("20" OR "21" OR "22" OR "23" OR "2048") AND action: ("accept" OR "close")) AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-FW-033</t>
+  </si>
+  <si>
+    <t>FW-033 Internal Remote Connection to Multiple Destination (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: traffic AND subtype: forward AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: 3389 AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-IPS-001</t>
+  </si>
+  <si>
+    <t>IPS-001 High Severity Alert - Not Block (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND severity: ("high" OR "critical") AND NOT action: "dropped" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-IPS-002</t>
+  </si>
+  <si>
+    <t>IPS-002 Multiple Signature from Internal Source (Severity: High)</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-IPS-003</t>
+  </si>
+  <si>
+    <t>IPS-003 Multiple Signature from External Source (Severity: Low)</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-IPS-010</t>
+  </si>
+  <si>
+    <t>IPS-010 Multiple High Severity Alert - Blocked (Severity: Low)</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: ips AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND severity: ("high" OR "critical") AND action: "dropped" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-IPS-MAL-001</t>
+  </si>
+  <si>
+    <t>IPS-MAL-001 Outbound Connection by Botnet (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: utm AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND NOT dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND attack: *botnet* AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-IPS-MAL-002</t>
+  </si>
+  <si>
+    <t>IPS-MAL-002 Blocked Malware on Internal Network (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: virus AND src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND action: "blocked" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-TI-001</t>
+  </si>
+  <si>
+    <t>type: traffic AND act: ("accept" OR "close") AND src_ioc: "'{data['src_ioc']}'"</t>
+  </si>
+  <si>
+    <t>DPU-TI-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type: traffic AND act: ("accept" OR "close") AND dst_ioc: "'{data['dst_ioc']}'"</t>
+  </si>
+  <si>
+    <t>DPU-URI-001</t>
+  </si>
+  <si>
+    <t>URL-001 Access to Suspicious Websites - Allowed (Severity: High)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type: utm AND subtype: webfilter AND catdesc: ("Child Sexual Abuse" OR "Crypto Mining" OR "Discrimination" OR "Drug Abuse" OR "Explicit Violence" OR "Extremist Groups" OR "Hacking" OR "Illegal or Unethical" OR "Plagiarism" OR "Potentially Unwanted Program" OR "Proxy Avoidance" OR "Terrorism" OR "Dynamic DNS" OR "Malicious Websites" OR "Newly Observed Domain" OR "Newly Registered Domain" OR "Phishing" OR "Spam URLs" OR "Games" OR "Gambling" OR "Pornography" OR "Weapons" OR "Peer-to-peer File Sharing") AND crlevel: ("medium" OR "high" OR "critical") AND NOT action: "blocked" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-URI-002</t>
+  </si>
+  <si>
+    <t>URL-002 Attempt Access to Suspicious Websites - Blocked (Severity: Low)</t>
+  </si>
+  <si>
+    <t>type: utm AND subtype: webfilter AND catdesc: ("Child Sexual Abuse" OR "Crypto Mining" OR "Discrimination" OR "Drug Abuse" OR "Explicit Violence" OR "Extremist Groups" OR "Hacking" OR "Illegal or Unethical" OR "Plagiarism" OR "Potentially Unwanted Program" OR "Proxy Avoidance" OR "Terrorism" OR "Dynamic DNS" OR "Malicious Websites" OR "Newly Observed Domain" OR "Newly Registered Domain" OR "Phishing" OR "Spam URLs" OR "Games" OR "Gambling" OR "Pornography" OR "Weapons" OR "Peer-to-peer File Sharing") AND crlevel: ("medium" OR "high" OR "critical") AND action: "blocked" AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
+  </si>
+  <si>
+    <t>DPU-LINUX-002</t>
+  </si>
+  <si>
+    <t>LINUX-002 Multiple Login Failure (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>program: "sshd" AND reason: "authentication failure" AND user: "'{data['user']}'"</t>
+  </si>
+  <si>
+    <t>DPU-LINUX-003</t>
+  </si>
+  <si>
+    <t>LINUX-003 Unauthorized User Account Privilege Escalation (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>program: ("su" OR "sudo") AND _exists_: suser AND NOT suser: "root" AND user: "'{data['user']}'"</t>
+  </si>
+  <si>
+    <t>DPU-WEB-001</t>
+  </si>
+  <si>
+    <t>WEB-001 External High Volume Traffic - Blocked (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>NOT response: (2* OR 3*) AND srcnat: "'{data['srcnat']}'"</t>
+  </si>
+  <si>
+    <t>DPU-WEB-002</t>
+  </si>
+  <si>
+    <t>WEB-002 Excessive Suspicious Input Parameter (Severity: Low)</t>
+  </si>
+  <si>
+    <t>_exists_: srcnat AND NOT response: (2* OR 3*) AND querystring.keyword: (*..* OR *..%2f* OR *..%252f* OR *..%25252f* OR *..%5C* OR *..%255C* OR *;* OR *\'* OR *\"* OR *\'--* OR *\"--* OR *\"* OR *\&lt;*\&gt;* OR *select*from* OR *jnd*ldap* OR *jnd*dns* OR *log4j*) AND srcnat: "'{data['srcnat']}'"</t>
+  </si>
+  <si>
+    <t>DPU-WEB-005</t>
+  </si>
+  <si>
+    <t>_exists_: srcnat AND querystring.keyword: (*..* OR *..%2f* OR *..%252f* OR *..%25252f* OR *..%5C* OR *..%255C*) AND srcnat: "'{data['srcnat']}'"</t>
+  </si>
+  <si>
+    <t>DPU-WEB-007</t>
+  </si>
+  <si>
+    <t>WEB-007 Detected Unauthorized Method with Response Code 2xx (Severity: Medium)</t>
+  </si>
+  <si>
+    <t>_exists_: srcnat AND NOT method: ("GET", "POST") AND response: 200 AND srcnat: "'{data['srcnat']}'"</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>TPOST</t>
+  </si>
+  <si>
+    <t>S&amp;P</t>
+  </si>
+  <si>
+    <t>CENTARA</t>
+  </si>
+  <si>
+    <t>DPU</t>
   </si>
   <si>
     <t>IEAT</t>
-  </si>
-  <si>
-    <t>http://172.16.1.214:5601/app/discover#/view/9ef44b03-6657-4fe2-a080-0fdec4fb07ec?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-1h,to:now))&amp;_a=(columns:!(),dataSource:(dataViewId:'5516706e-b209-483c-a65d-d0a1202c5033',type:dataView),filters:!(),grid:(),hideChart:!f,interval:auto,query:(language:lucene,query:'event.code:%20(4754%20OR%204755%20OR%204756%20OR%204757%20OR%204758)%20OR%20event.code:%20(4727%20OR%204728%20OR%204729%20OR%204730)%20AND%20%22ESX%20Admins%22'),sort:!(!('@timestamp',desc)))</t>
-  </si>
-  <si>
-    <t>IEAT-FW-000</t>
-  </si>
-  <si>
-    <t>http://172.16.1.214:5601/app/dashboards#/view/bbba81e0-23e5-11ef-a8cb-3b076f96d100?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-1h,to:now))</t>
-  </si>
-  <si>
-    <t>IEAT-FW-001</t>
-  </si>
-  <si>
-    <t>FW-001 Inbound Remote Traffic - Allowed (Severity: Medium)</t>
-  </si>
-  <si>
-    <t>http://172.16.1.214:5601/app/dashboards#/view/6e972e00-23bc-11ef-a8cb-3b076f96d100?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-15m,to:now))</t>
-  </si>
-  <si>
-    <t>IEAT-FW-002</t>
-  </si>
-  <si>
-    <t>FW-002 Inbound Remote Traffic - Blocked (Severity: Low)</t>
-  </si>
-  <si>
-    <t>http://172.16.1.214:5601/app/dashboards#/view/6e972e00-23bc-11ef-a8cb-3b076f96d100?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:'{@timestamp}',to:'{@timestamp}-1h'))</t>
-  </si>
-  <si>
-    <t>IEAT-FW-003</t>
-  </si>
-  <si>
-    <t>FW-003 Inbound Suspicious Protocol Traffic - Allowed (Severity: Medium)</t>
-  </si>
-  <si>
-    <t>type: traffic AND subtype: forward AND NOT src_ip_addr: ("10.0.0.0/8" OR "172.16.0.0/12" OR "192.168.0.0/16") AND dst_port: ("20" OR "21" OR "22" OR "23" OR "135" OR "138" OR "139" OR "161" OR "2048") AND action: ("accept" OR "close") AND src_ip_addr: "'{data['src_ip_addr']}'"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,22 +1526,25 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,24 +1556,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,113 +1916,1944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426DCF01-999F-453B-BFF5-935ADBB7745B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="33">
+      <c r="A35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
+      <c r="A40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5">
+      <c r="A42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
+      <c r="A43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5">
+      <c r="A44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
+      <c r="A45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5">
+      <c r="A48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
+      <c r="A49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="33">
+      <c r="A50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
+      <c r="A51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5">
+      <c r="A52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
+      <c r="A54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5">
+      <c r="A56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5">
+      <c r="A57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5">
+      <c r="A58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5">
+      <c r="A59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5">
+      <c r="A60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5">
+      <c r="A61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5">
+      <c r="A62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5">
+      <c r="A63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5">
+      <c r="A64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5">
+      <c r="A65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5">
+      <c r="A66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5">
+      <c r="A67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5">
+      <c r="A68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5">
+      <c r="A69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5">
+      <c r="A70" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5">
+      <c r="A71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5">
+      <c r="A72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5">
+      <c r="A73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5">
+      <c r="A74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5">
+      <c r="A76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5">
+      <c r="A77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5">
+      <c r="A78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5">
+      <c r="A79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5">
+      <c r="A80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5">
+      <c r="A81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5">
+      <c r="A82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5">
+      <c r="A83" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5">
+      <c r="A84" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5">
+      <c r="A85" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="33">
+      <c r="A86" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5">
+      <c r="A87" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5">
+      <c r="A88" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5">
+      <c r="A89" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5">
+      <c r="A90" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5">
+      <c r="A91" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5">
+      <c r="A92" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5">
+      <c r="A93" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5">
+      <c r="A94" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5">
+      <c r="A95" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5">
+      <c r="A96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5">
+      <c r="A97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5">
+      <c r="A98" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5">
+      <c r="A99" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5">
+      <c r="A100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5">
+      <c r="A101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5">
+      <c r="A102" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5">
+      <c r="A103" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5">
+      <c r="A104" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5">
+      <c r="A105" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5">
+      <c r="A106" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5">
+      <c r="A107" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5">
+      <c r="A108" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5">
+      <c r="A109" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5">
+      <c r="A110" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5">
+      <c r="A111" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5">
+      <c r="A112" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5">
+      <c r="A113" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5">
+      <c r="A114" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5">
+      <c r="A115" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5">
+      <c r="A116" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5">
+      <c r="A117" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5">
+      <c r="A118" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5">
+      <c r="A119" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5">
+      <c r="A120" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5">
+      <c r="A121" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5">
+      <c r="A122" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5">
+      <c r="A123" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5">
+      <c r="A124" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5">
+      <c r="A125" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5">
+      <c r="A126" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5">
+      <c r="A127" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5">
+      <c r="A128" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5">
+      <c r="A129" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5">
+      <c r="A130" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5">
+      <c r="A131" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5">
+      <c r="A132" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5">
+      <c r="A133" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5">
+      <c r="A134" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5">
+      <c r="A135" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5">
+      <c r="A136" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5">
+      <c r="A137" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5">
+      <c r="A138" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5">
+      <c r="A139" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5">
+      <c r="A140" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5">
+      <c r="A141" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5">
+      <c r="A142" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5">
+      <c r="A143" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5">
+      <c r="A144" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5">
+      <c r="A145" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5">
+      <c r="A146" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5">
+      <c r="A147" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5">
+      <c r="A148" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5">
+      <c r="A149" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5">
+      <c r="A150" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5">
+      <c r="A151" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5">
+      <c r="A152" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5">
+      <c r="A153" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5">
+      <c r="A154" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5">
+      <c r="A155" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5">
+      <c r="A156" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5">
+      <c r="A157" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5">
+      <c r="A158" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5">
+      <c r="A159" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5">
+      <c r="A160" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5">
+      <c r="A161" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5">
+      <c r="A162" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5">
+      <c r="A163" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5">
+      <c r="A164" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5">
+      <c r="A165" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5">
+      <c r="A166" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5">
+      <c r="A167" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5">
+      <c r="A168" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055D887-570A-46C7-BB21-6FB4B5465479}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>481</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>485</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="/view/9ef44b03-6657-4fe2-a080-0fdec4fb07ec?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-1h,to:now))&amp;_a=(columns:!(),dataSource:(dataViewId:'5516706e-b209-483c-a65d-d0a1202c5033',type:dataView),filters:!(),grid:(),hideChart:!f,interval:auto,query:(language:lucene,query:'event.code:%20(4754%20OR%204755%20OR%204756%20OR%204757%20OR%204758)%20OR%20event.code:%20(4727%20OR%204728%20OR%204729%20OR%204730)%20AND%20%22ESX%20Admins%22'),sort:!(!('@timestamp',desc" display="http://172.16.1.214:5601/app/discover#/view/9ef44b03-6657-4fe2-a080-0fdec4fb07ec?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-1h,to:now))&amp;_a=(columns:!(),dataSource:(dataViewId:'5516706e-b209-483c-a65d-d0a1202c5033',type:dataView),filters:!(),grid:(),hideChart:!f,interval:auto,query:(language:lucene,query:'event.code:%20(4754%20OR%204755%20OR%204756%20OR%204757%20OR%204758)%20OR%20event.code:%20(4727%20OR%204728%20OR%204729%20OR%204730)%20AND%20%22ESX%20Admins%22'),sort:!(!('@timestamp',desc)))" xr:uid="{780886D3-AFD3-4AE6-9E75-87FAD6E01FD3}"/>
-    <hyperlink ref="C3" r:id="rId2" location="/view/bbba81e0-23e5-11ef-a8cb-3b076f96d100?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-1h,to:now" xr:uid="{9C1ED330-8316-48D2-81EF-7F40A5E1AEDF}"/>
-    <hyperlink ref="C4" r:id="rId3" location="/view/6e972e00-23bc-11ef-a8cb-3b076f96d100?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:now-15m,to:now" xr:uid="{249D9FC8-0BDE-452E-BCD6-7AC0C69B6109}"/>
-    <hyperlink ref="C5" r:id="rId4" location="/view/6e972e00-23bc-11ef-a8cb-3b076f96d100?_g=(filters:!(),refreshInterval:(pause:!t,value:60000),time:(from:'{@timestamp}',to:'{@timestamp}-1h" xr:uid="{94CA3417-A704-43FF-8753-07C856C19028}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CB7985996EBDE4EB37C3DF60939E0E5" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54d2f349de7a2dace96f97e2a1603e25">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24730c3e-159a-4016-a72a-2fcca381bc7d" xmlns:ns3="ae87969c-17f1-485f-9c8d-ac23ebd107a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1289408f7c29f7f8e147bcf30cbb1cc5" ns2:_="" ns3:_="">
     <xsd:import namespace="24730c3e-159a-4016-a72a-2fcca381bc7d"/>
@@ -786,14 +4054,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83C4204-10B4-4EB0-BAFB-1A55981844A0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129A63D3-4918-45E1-9ECA-A3143BD3680F}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2C54AC-7836-4755-A8B0-FC2889F0B611}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83C4204-10B4-4EB0-BAFB-1A55981844A0}"/>
 </file>